--- a/專題/5.xlsx
+++ b/專題/5.xlsx
@@ -476,22 +476,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,352.06</t>
+          <t>25,787.87</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>393.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.53</v>
-      </c>
+          <t>435.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -505,20 +503,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,039.76</t>
+          <t>4,996.44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.86</v>
+      </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -532,22 +532,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7,620.75</t>
+          <t>7,718.89</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0.66</v>
-      </c>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -561,22 +559,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7,083.44</t>
+          <t>7,195.43</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7</v>
-      </c>
+          <t>111.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -590,22 +586,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,548.62</t>
+          <t>7,706.82</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>47.58</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.63</v>
-      </c>
+          <t>158.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -619,22 +613,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,403.67</t>
+          <t>7,589.41</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>47.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.64</v>
-      </c>
+          <t>185.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -648,22 +640,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,277.07</t>
+          <t>6,340.89</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.89</v>
-      </c>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -677,22 +667,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14,305.68</t>
+          <t>14,676.63</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.67</v>
-      </c>
+          <t>370.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -706,22 +694,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,513.21</t>
+          <t>6,574.44</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>40.52</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.62</v>
-      </c>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -735,22 +721,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7,401.68</t>
+          <t>7,508.60</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0.75</v>
-      </c>
+          <t>106.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -764,22 +748,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,691.60</t>
+          <t>5,755.48</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>37.92</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.66</v>
-      </c>
+          <t>63.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -793,22 +775,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,517.22</t>
+          <t>5,612.76</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.35</v>
-      </c>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -822,22 +802,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6,491.72</t>
+          <t>6,581.94</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.49</v>
-      </c>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -851,22 +829,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6,556.96</t>
+          <t>6,669.97</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>74.33</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.12</v>
-      </c>
+          <t>113.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -880,22 +856,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,203.09</t>
+          <t>8,331.79</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>48.72</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.59</v>
-      </c>
+          <t>128.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -909,22 +883,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,649.77</t>
+          <t>5,673.59</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.67</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.4</v>
-      </c>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -938,22 +910,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7,488.25</t>
+          <t>7,599.78</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>48.23</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.64</v>
-      </c>
+          <t>111.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -967,22 +937,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7,015.56</t>
+          <t>7,101.08</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.61</v>
-      </c>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -996,22 +964,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6,136.92</t>
+          <t>6,191.12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>68.29</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.1</v>
-      </c>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1025,22 +991,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,777.56</t>
+          <t>5,890.21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>62.05</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.06</v>
-      </c>
+          <t>112.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1054,22 +1018,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,683.04</t>
+          <t>4,733.35</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25.19</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0.54</v>
-      </c>
+          <t>50.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1083,22 +1045,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7,636.32</t>
+          <t>7,736.78</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32.61</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
+          <t>100.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1112,22 +1072,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6,076.49</t>
+          <t>6,165.34</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1</v>
-      </c>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1141,22 +1099,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5,429.38</t>
+          <t>5,587.24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1.31</v>
-      </c>
+          <t>157.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1170,22 +1126,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6,547.05</t>
+          <t>6,622.47</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>32.49</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.49</v>
-      </c>
+          <t>75.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1199,22 +1153,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,409.84</t>
+          <t>5,491.83</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.53</v>
-      </c>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1228,22 +1180,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,907.59</t>
+          <t>3,959.29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18.67</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.48</v>
-      </c>
+          <t>51.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1257,22 +1207,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,830.27</t>
+          <t>3,969.44</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>61.77</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.59</v>
-      </c>
+          <t>139.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1286,22 +1234,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3,916.41</t>
+          <t>4,064.49</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>63.10</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1.59</v>
-      </c>
+          <t>148.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1315,22 +1261,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,343.05</t>
+          <t>4,411.48</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.68</v>
-      </c>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1344,22 +1288,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,607.07</t>
+          <t>4,661.06</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>41.83</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.9</v>
-      </c>
+          <t>53.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1373,22 +1315,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5,466.48</t>
+          <t>5,618.24</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>71.69</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1.29</v>
-      </c>
+          <t>151.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1402,22 +1342,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4,894.75</t>
+          <t>4,934.88</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>41.97</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.85</v>
-      </c>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1431,22 +1369,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,007.33</t>
+          <t>5,105.21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>70.41</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1.39</v>
-      </c>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>

--- a/專題/5.xlsx
+++ b/專題/5.xlsx
@@ -476,20 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,787.87</t>
+          <t>24,836.22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>435.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>274.10</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -503,22 +505,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4,996.44</t>
+          <t>5,088.37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>43.32</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.86</v>
-      </c>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -532,20 +532,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7,718.89</t>
+          <t>7,551.38</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.85</v>
+      </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -559,20 +561,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7,195.43</t>
+          <t>6,916.22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>111.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -586,20 +590,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,706.82</t>
+          <t>7,339.37</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>158.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.05</v>
+      </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -613,20 +619,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,589.41</t>
+          <t>7,190.10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>185.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.18</v>
+      </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -640,20 +648,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,340.89</t>
+          <t>6,302.20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>63.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -667,20 +677,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14,676.63</t>
+          <t>13,893.10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>370.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.09</v>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -694,20 +706,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,574.44</t>
+          <t>6,500.66</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>61.23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03</v>
+      </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -721,20 +735,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7,508.60</t>
+          <t>7,275.78</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>106.92</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>100.81</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.37</v>
+      </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -748,20 +764,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,755.48</t>
+          <t>5,654.07</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>63.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -775,20 +793,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,612.76</t>
+          <t>5,474.89</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95.54</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.36</v>
+      </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -802,20 +822,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6,581.94</t>
+          <t>6,542.32</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.48</v>
+      </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -829,20 +851,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6,669.97</t>
+          <t>6,372.40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>113.01</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.1</v>
+      </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -856,20 +880,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,331.79</t>
+          <t>8,115.38</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>128.70</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.51</v>
+      </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -883,20 +909,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,673.59</t>
+          <t>5,605.54</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23.82</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -910,20 +938,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7,599.78</t>
+          <t>7,363.53</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>111.53</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.15</v>
+      </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -937,20 +967,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7,101.08</t>
+          <t>6,978.82</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>34.25</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.49</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -964,20 +996,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6,191.12</t>
+          <t>6,152.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>54.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>19.15</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.31</v>
+      </c>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -991,20 +1025,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,890.21</t>
+          <t>5,636.86</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>112.65</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.27</v>
+      </c>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1018,20 +1054,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,733.35</t>
+          <t>4,668.31</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50.31</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>58.98</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.25</v>
+      </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1045,20 +1083,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7,736.78</t>
+          <t>7,485.34</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>100.46</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.3</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1072,20 +1112,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6,165.34</t>
+          <t>6,149.09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>88.85</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.53</v>
+      </c>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1099,20 +1141,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5,587.24</t>
+          <t>5,287.14</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>157.86</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8</v>
+      </c>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1126,20 +1170,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6,622.47</t>
+          <t>6,386.65</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>75.42</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>58.98</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.92</v>
+      </c>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1153,20 +1199,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,491.83</t>
+          <t>5,305.19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>81.99</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>64.91</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.21</v>
+      </c>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1180,20 +1228,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,959.29</t>
+          <t>3,821.41</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>51.70</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.77</v>
+      </c>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1207,20 +1257,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,969.44</t>
+          <t>3,758.07</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>139.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.97</v>
+      </c>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1234,20 +1286,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,064.49</t>
+          <t>3,796.93</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>148.08</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>35.58</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.93</v>
+      </c>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1261,20 +1315,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,411.48</t>
+          <t>4,300.10</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.86</v>
+      </c>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1288,20 +1344,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,661.06</t>
+          <t>4,648.81</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>53.99</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.63</v>
+      </c>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1315,20 +1373,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5,618.24</t>
+          <t>5,370.67</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>151.76</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.39</v>
+      </c>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1342,20 +1402,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4,934.88</t>
+          <t>4,819.15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>40.13</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7</v>
+      </c>
       <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1369,20 +1431,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,105.21</t>
+          <t>4,874.37</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.48</v>
+      </c>
       <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
